--- a/1/5/Indicadores macroeconómicos anuales 1980 a 2050 - Anual.xlsx
+++ b/1/5/Indicadores macroeconómicos anuales 1980 a 2050 - Anual.xlsx
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>3441</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>3935</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>3552</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -645,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>3531</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -653,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>3814</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>3950</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>4181</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -677,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>4488</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -685,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>4900</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -693,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>5539</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -704,7 +704,7 @@
         <v>13178782</v>
       </c>
       <c r="D12">
-        <v>5860</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -715,7 +715,7 @@
         <v>13422010</v>
       </c>
       <c r="D13">
-        <v>6407</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -726,7 +726,7 @@
         <v>13737062</v>
       </c>
       <c r="D14">
-        <v>7116</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -737,7 +737,7 @@
         <v>13956766</v>
       </c>
       <c r="D15">
-        <v>7652</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -748,7 +748,7 @@
         <v>14171821</v>
       </c>
       <c r="D16">
-        <v>8086</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -759,7 +759,7 @@
         <v>14381249</v>
       </c>
       <c r="D17">
-        <v>8855</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -773,7 +773,7 @@
         <v>5351</v>
       </c>
       <c r="D18">
-        <v>9502</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -787,7 +787,7 @@
         <v>5746</v>
       </c>
       <c r="D19">
-        <v>10244</v>
+        <v>10233</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -801,7 +801,7 @@
         <v>5451</v>
       </c>
       <c r="D20">
-        <v>10672</v>
+        <v>10660</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -815,7 +815,7 @@
         <v>4958</v>
       </c>
       <c r="D21">
-        <v>10643</v>
+        <v>10628</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -829,7 +829,7 @@
         <v>5081</v>
       </c>
       <c r="D22">
-        <v>11326</v>
+        <v>11314</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -843,7 +843,7 @@
         <v>4591</v>
       </c>
       <c r="D23">
-        <v>11821</v>
+        <v>11814</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -857,7 +857,7 @@
         <v>4446</v>
       </c>
       <c r="D24">
-        <v>12244</v>
+        <v>12235</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -871,7 +871,7 @@
         <v>4797</v>
       </c>
       <c r="D25">
-        <v>12846</v>
+        <v>12851</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -885,7 +885,7 @@
         <v>6201</v>
       </c>
       <c r="D26">
-        <v>13997</v>
+        <v>14001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -899,7 +899,7 @@
         <v>7626</v>
       </c>
       <c r="D27">
-        <v>15109</v>
+        <v>15117</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -913,7 +913,7 @@
         <v>9470</v>
       </c>
       <c r="D28">
-        <v>16383</v>
+        <v>16401</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -927,7 +927,7 @@
         <v>10524</v>
       </c>
       <c r="D29">
-        <v>17468</v>
+        <v>17489</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -941,7 +941,7 @@
         <v>10949</v>
       </c>
       <c r="D30">
-        <v>18244</v>
+        <v>18262</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -955,7 +955,7 @@
         <v>10296</v>
       </c>
       <c r="D31">
-        <v>17895</v>
+        <v>17890</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -969,7 +969,7 @@
         <v>12853</v>
       </c>
       <c r="D32">
-        <v>18952</v>
+        <v>18954</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1011,7 +1011,7 @@
         <v>15814</v>
       </c>
       <c r="D35">
-        <v>22386</v>
+        <v>22387</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1053,7 +1053,7 @@
         <v>13798</v>
       </c>
       <c r="D38">
-        <v>22751</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1067,7 +1067,7 @@
         <v>15046</v>
       </c>
       <c r="D39">
-        <v>23718</v>
+        <v>23720</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1095,7 +1095,7 @@
         <v>14642</v>
       </c>
       <c r="D41">
-        <v>24969</v>
+        <v>24968</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1109,7 +1109,7 @@
         <v>13038</v>
       </c>
       <c r="D42">
-        <v>23366</v>
+        <v>23363</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1120,7 +1120,7 @@
         <v>19678363</v>
       </c>
       <c r="D43">
-        <v>24928</v>
+        <v>26513</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1131,7 +1131,7 @@
         <v>19828563</v>
       </c>
       <c r="D44">
-        <v>26195</v>
+        <v>27629</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1142,7 +1142,7 @@
         <v>19960889</v>
       </c>
       <c r="D45">
-        <v>27246</v>
+        <v>28546</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>20086377</v>
       </c>
       <c r="D46">
-        <v>28252</v>
+        <v>29507</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1164,7 +1164,7 @@
         <v>20206953</v>
       </c>
       <c r="D47">
-        <v>29248</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1175,7 +1175,7 @@
         <v>20322807</v>
       </c>
       <c r="D48">
-        <v>30279</v>
+        <v>31674</v>
       </c>
     </row>
     <row r="49" spans="1:2">
